--- a/Excel reader/B4.xlsx
+++ b/Excel reader/B4.xlsx
@@ -482,7 +482,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>181B107</t>
+          <t>181b107</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -500,7 +500,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>181B116</t>
+          <t>181b116</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -518,7 +518,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>181B113</t>
+          <t>181b113</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -536,7 +536,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>181B112</t>
+          <t>181b112</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -554,7 +554,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>181B128</t>
+          <t>181b128</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -590,7 +590,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>181B115</t>
+          <t>181b115</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -608,7 +608,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>181B109</t>
+          <t>181b109</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -626,7 +626,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>181B117</t>
+          <t>181b117</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -662,7 +662,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>181B121</t>
+          <t>181b121</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -680,7 +680,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>181B123</t>
+          <t>181b123</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -698,7 +698,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>181B105</t>
+          <t>181b105</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -716,7 +716,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>181B264</t>
+          <t>181b264</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -734,7 +734,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>181B102</t>
+          <t>181b102</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -752,7 +752,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>181B110</t>
+          <t>181b110</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -770,7 +770,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>181B098</t>
+          <t>181b098</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -788,7 +788,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>181B108</t>
+          <t>181b108</t>
         </is>
       </c>
       <c r="B21" t="n">
